--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iweof-my.sharepoint.com/personal/pistis_ipani_ingka_com/Documents/Bureau/Bots/BACK_IN_STOCK/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E7433B1F-DA31-4C63-A882-B3AA4E10BCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54BC7C50-4C5A-46E1-ADAB-15B52949429C}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E7433B1F-DA31-4C63-A882-B3AA4E10BCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DE299C-7F6C-4204-A401-0C262FA2C030}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>UtilisateurWDE_BackInSock</t>
+  </si>
+  <si>
+    <t>FiltreSams</t>
+  </si>
+  <si>
+    <t>Back in stock</t>
   </si>
 </sst>
 </file>
@@ -260,6 +266,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,7 +572,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -650,7 +660,14 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2817,7 +2834,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
